--- a/HW_past/模型績效.xlsx
+++ b/HW_past/模型績效.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/Code/ML_hw/HW_past/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6663EC03-E967-EA48-906E-C86A025E27BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA4808F-6DFB-8345-A0EA-18267082E9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{822E0BED-7A7F-4549-936A-EFA5BE46BB82}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="33600" windowHeight="19020" xr2:uid="{822E0BED-7A7F-4549-936A-EFA5BE46BB82}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="運行結果" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>績效指標</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +105,10 @@
   </si>
   <si>
     <t>[[24410 310] [ 6293 1548]]</t>
+  </si>
+  <si>
+    <t>選用特徵，做五折，且使用SMOTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -196,14 +201,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -226,16 +231,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2197100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>134514</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -258,8 +263,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="4102100"/>
-          <a:ext cx="3670300" cy="2882900"/>
+          <a:off x="2298700" y="3708399"/>
+          <a:ext cx="6299200" cy="4947815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -270,16 +275,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3175000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3162300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>282344</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -302,8 +307,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9931400" y="4102100"/>
-          <a:ext cx="3670300" cy="2882900"/>
+          <a:off x="9448800" y="3746500"/>
+          <a:ext cx="6438900" cy="5057544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C479732-35A6-336C-5BE4-9DDE432D0AB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="139700"/>
+          <a:ext cx="5867400" cy="6108700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -635,7 +689,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -645,141 +699,206 @@
     <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="42" style="1" customWidth="1"/>
-    <col min="6" max="12" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="45.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="79" customHeight="1">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:7" ht="79" customHeight="1">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="40" customHeight="1">
+    <row r="2" spans="1:7" ht="40" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>0.79287578688776295</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.79579302932596296</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>0.79361813212124899</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>0.79721138785663803</v>
       </c>
+      <c r="F4" s="4">
+        <v>0.79361813212124899</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.79721138785663803</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>0.65857142857142803</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0.98393574297188702</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>0.77983025461807198</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.83315392895586604</v>
       </c>
+      <c r="F5" s="4">
+        <v>0.77983025461807198</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.83315392895586604</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>0.293443666454487</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.15595162316995501</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.199209284530034</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.19742379798494999</v>
       </c>
+      <c r="F6" s="4">
+        <v>0.199209284530034</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.19742379798494999</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>0.40598855129898698</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>0.269230769230769</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>0.31735067045916299</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.31920816579028699</v>
       </c>
+      <c r="F7" s="4">
+        <v>0.31735067045916299</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.31920816579028699</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>0.57073698578008103</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
+        <v>0.58851990656531505</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.57073698578008103</v>
+      </c>
+      <c r="G8" s="4">
         <v>0.58851990656531505</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE16845-C1E5-FC40-91BF-10D8552C0C6A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>